--- a/data/raw/election/voters-age-sex-education/2023/Kilis.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Kilis.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:49:13-16044434081" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="33">
   <si>
     <t>Kilis</t>
   </si>
@@ -113,6 +112,12 @@
   </si>
   <si>
     <t>Polateli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -646,7 +651,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -666,10 +671,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -994,10 +1008,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:A110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,20 +1031,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2073,8 +2087,8 @@
       <c r="G30" s="5">
         <v>836</v>
       </c>
-      <c r="H30" s="5">
-        <v>1.274</v>
+      <c r="H30" s="7">
+        <v>1274</v>
       </c>
       <c r="I30" s="5">
         <v>827</v>
@@ -2088,8 +2102,8 @@
       <c r="L30" s="5">
         <v>60</v>
       </c>
-      <c r="M30" s="5">
-        <v>4.6429999999999998</v>
+      <c r="M30" s="7">
+        <v>4643</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2150,11 +2164,11 @@
       <c r="F32" s="4">
         <v>4</v>
       </c>
-      <c r="G32" s="4">
-        <v>1.845</v>
-      </c>
-      <c r="H32" s="4">
-        <v>3.6789999999999998</v>
+      <c r="G32" s="9">
+        <v>1845</v>
+      </c>
+      <c r="H32" s="9">
+        <v>3679</v>
       </c>
       <c r="I32" s="4">
         <v>734</v>
@@ -2168,8 +2182,8 @@
       <c r="L32" s="4">
         <v>121</v>
       </c>
-      <c r="M32" s="5">
-        <v>6.4880000000000004</v>
+      <c r="M32" s="7">
+        <v>6488</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2189,14 +2203,14 @@
       <c r="F33" s="4">
         <v>5</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.65</v>
-      </c>
-      <c r="H33" s="4">
-        <v>3.7250000000000001</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1.2649999999999999</v>
+      <c r="G33" s="9">
+        <v>1650</v>
+      </c>
+      <c r="H33" s="9">
+        <v>3725</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1265</v>
       </c>
       <c r="J33" s="4">
         <v>7</v>
@@ -2207,8 +2221,8 @@
       <c r="L33" s="4">
         <v>149</v>
       </c>
-      <c r="M33" s="5">
-        <v>6.9450000000000003</v>
+      <c r="M33" s="7">
+        <v>6945</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2230,14 +2244,14 @@
       <c r="F34" s="4">
         <v>78</v>
       </c>
-      <c r="G34" s="4">
-        <v>1.133</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1.5129999999999999</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1.988</v>
+      <c r="G34" s="9">
+        <v>1133</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1513</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1988</v>
       </c>
       <c r="J34" s="4">
         <v>199</v>
@@ -2248,8 +2262,8 @@
       <c r="L34" s="4">
         <v>75</v>
       </c>
-      <c r="M34" s="5">
-        <v>5.0620000000000003</v>
+      <c r="M34" s="7">
+        <v>5062</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2269,14 +2283,14 @@
       <c r="F35" s="4">
         <v>133</v>
       </c>
-      <c r="G35" s="4">
-        <v>1.044</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="I35" s="4">
-        <v>2.4289999999999998</v>
+      <c r="G35" s="9">
+        <v>1044</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1183</v>
+      </c>
+      <c r="I35" s="9">
+        <v>2429</v>
       </c>
       <c r="J35" s="4">
         <v>257</v>
@@ -2287,8 +2301,8 @@
       <c r="L35" s="4">
         <v>236</v>
       </c>
-      <c r="M35" s="5">
-        <v>5.4909999999999997</v>
+      <c r="M35" s="7">
+        <v>5491</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2313,11 +2327,11 @@
       <c r="G36" s="4">
         <v>518</v>
       </c>
-      <c r="H36" s="4">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="I36" s="4">
-        <v>2.1680000000000001</v>
+      <c r="H36" s="9">
+        <v>1315</v>
+      </c>
+      <c r="I36" s="9">
+        <v>2168</v>
       </c>
       <c r="J36" s="4">
         <v>313</v>
@@ -2328,8 +2342,8 @@
       <c r="L36" s="4">
         <v>95</v>
       </c>
-      <c r="M36" s="5">
-        <v>5.1550000000000002</v>
+      <c r="M36" s="7">
+        <v>5155</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2352,11 +2366,11 @@
       <c r="G37" s="4">
         <v>533</v>
       </c>
-      <c r="H37" s="4">
-        <v>1.06</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1.5609999999999999</v>
+      <c r="H37" s="9">
+        <v>1060</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1561</v>
       </c>
       <c r="J37" s="4">
         <v>218</v>
@@ -2367,8 +2381,8 @@
       <c r="L37" s="4">
         <v>183</v>
       </c>
-      <c r="M37" s="5">
-        <v>4.4370000000000003</v>
+      <c r="M37" s="7">
+        <v>4437</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2393,11 +2407,11 @@
       <c r="G38" s="4">
         <v>359</v>
       </c>
-      <c r="H38" s="4">
-        <v>1.139</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1.3740000000000001</v>
+      <c r="H38" s="9">
+        <v>1139</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1374</v>
       </c>
       <c r="J38" s="4">
         <v>239</v>
@@ -2408,8 +2422,8 @@
       <c r="L38" s="4">
         <v>131</v>
       </c>
-      <c r="M38" s="5">
-        <v>4.266</v>
+      <c r="M38" s="7">
+        <v>4266</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2432,8 +2446,8 @@
       <c r="G39" s="4">
         <v>639</v>
       </c>
-      <c r="H39" s="4">
-        <v>1.016</v>
+      <c r="H39" s="9">
+        <v>1016</v>
       </c>
       <c r="I39" s="4">
         <v>832</v>
@@ -2447,8 +2461,8 @@
       <c r="L39" s="4">
         <v>179</v>
       </c>
-      <c r="M39" s="5">
-        <v>3.9830000000000001</v>
+      <c r="M39" s="7">
+        <v>3983</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2473,8 +2487,8 @@
       <c r="G40" s="4">
         <v>639</v>
       </c>
-      <c r="H40" s="4">
-        <v>1.0840000000000001</v>
+      <c r="H40" s="9">
+        <v>1084</v>
       </c>
       <c r="I40" s="4">
         <v>789</v>
@@ -2488,8 +2502,8 @@
       <c r="L40" s="4">
         <v>114</v>
       </c>
-      <c r="M40" s="5">
-        <v>3.83</v>
+      <c r="M40" s="7">
+        <v>3830</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2527,8 +2541,8 @@
       <c r="L41" s="4">
         <v>145</v>
       </c>
-      <c r="M41" s="5">
-        <v>3.85</v>
+      <c r="M41" s="7">
+        <v>3850</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2568,8 +2582,8 @@
       <c r="L42" s="4">
         <v>111</v>
       </c>
-      <c r="M42" s="5">
-        <v>3.306</v>
+      <c r="M42" s="7">
+        <v>3306</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2607,8 +2621,8 @@
       <c r="L43" s="4">
         <v>94</v>
       </c>
-      <c r="M43" s="5">
-        <v>3.2549999999999999</v>
+      <c r="M43" s="7">
+        <v>3255</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2648,8 +2662,8 @@
       <c r="L44" s="4">
         <v>72</v>
       </c>
-      <c r="M44" s="5">
-        <v>2.98</v>
+      <c r="M44" s="7">
+        <v>2980</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2687,8 +2701,8 @@
       <c r="L45" s="4">
         <v>77</v>
       </c>
-      <c r="M45" s="5">
-        <v>2.89</v>
+      <c r="M45" s="7">
+        <v>2890</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2728,8 +2742,8 @@
       <c r="L46" s="4">
         <v>57</v>
       </c>
-      <c r="M46" s="5">
-        <v>2.6920000000000002</v>
+      <c r="M46" s="7">
+        <v>2692</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2767,8 +2781,8 @@
       <c r="L47" s="4">
         <v>58</v>
       </c>
-      <c r="M47" s="5">
-        <v>2.702</v>
+      <c r="M47" s="7">
+        <v>2702</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2808,8 +2822,8 @@
       <c r="L48" s="4">
         <v>52</v>
       </c>
-      <c r="M48" s="5">
-        <v>2.141</v>
+      <c r="M48" s="7">
+        <v>2141</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2847,8 +2861,8 @@
       <c r="L49" s="4">
         <v>47</v>
       </c>
-      <c r="M49" s="5">
-        <v>2.1070000000000002</v>
+      <c r="M49" s="7">
+        <v>2107</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2888,8 +2902,8 @@
       <c r="L50" s="4">
         <v>34</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.482</v>
+      <c r="M50" s="7">
+        <v>1482</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2927,8 +2941,8 @@
       <c r="L51" s="4">
         <v>41</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.603</v>
+      <c r="M51" s="7">
+        <v>1603</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2968,8 +2982,8 @@
       <c r="L52" s="4">
         <v>34</v>
       </c>
-      <c r="M52" s="5">
-        <v>1.1359999999999999</v>
+      <c r="M52" s="7">
+        <v>1136</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3007,8 +3021,8 @@
       <c r="L53" s="4">
         <v>16</v>
       </c>
-      <c r="M53" s="5">
-        <v>1.379</v>
+      <c r="M53" s="7">
+        <v>1379</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3048,8 +3062,8 @@
       <c r="L54" s="4">
         <v>15</v>
       </c>
-      <c r="M54" s="5">
-        <v>1.3779999999999999</v>
+      <c r="M54" s="7">
+        <v>1378</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3087,8 +3101,8 @@
       <c r="L55" s="4">
         <v>23</v>
       </c>
-      <c r="M55" s="5">
-        <v>2.0950000000000002</v>
+      <c r="M55" s="7">
+        <v>2095</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3096,38 +3110,38 @@
         <v>12</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>2.0470000000000002</v>
-      </c>
-      <c r="D56" s="5">
-        <v>2.4660000000000002</v>
-      </c>
-      <c r="E56" s="5">
-        <v>9.5920000000000005</v>
-      </c>
-      <c r="F56" s="5">
-        <v>8.91</v>
-      </c>
-      <c r="G56" s="5">
-        <v>15.195</v>
-      </c>
-      <c r="H56" s="5">
-        <v>21.832999999999998</v>
-      </c>
-      <c r="I56" s="5">
-        <v>16.29</v>
-      </c>
-      <c r="J56" s="5">
-        <v>1.89</v>
+      <c r="C56" s="7">
+        <v>2047</v>
+      </c>
+      <c r="D56" s="7">
+        <v>2466</v>
+      </c>
+      <c r="E56" s="7">
+        <v>9592</v>
+      </c>
+      <c r="F56" s="7">
+        <v>8910</v>
+      </c>
+      <c r="G56" s="7">
+        <v>15195</v>
+      </c>
+      <c r="H56" s="7">
+        <v>21833</v>
+      </c>
+      <c r="I56" s="7">
+        <v>16290</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1890</v>
       </c>
       <c r="K56" s="5">
         <v>271</v>
       </c>
-      <c r="L56" s="5">
-        <v>2.1589999999999998</v>
-      </c>
-      <c r="M56" s="5">
-        <v>80.653000000000006</v>
+      <c r="L56" s="7">
+        <v>2159</v>
+      </c>
+      <c r="M56" s="7">
+        <v>80653</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4140,17 +4154,17 @@
       <c r="D82" s="5">
         <v>392</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.8420000000000001</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="G82" s="5">
-        <v>2.2930000000000001</v>
-      </c>
-      <c r="H82" s="5">
-        <v>1.6220000000000001</v>
+      <c r="E82" s="7">
+        <v>1842</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1293</v>
+      </c>
+      <c r="G82" s="7">
+        <v>2293</v>
+      </c>
+      <c r="H82" s="7">
+        <v>1622</v>
       </c>
       <c r="I82" s="5">
         <v>377</v>
@@ -4164,8 +4178,8 @@
       <c r="L82" s="5">
         <v>46</v>
       </c>
-      <c r="M82" s="5">
-        <v>8.3450000000000006</v>
+      <c r="M82" s="7">
+        <v>8345</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5202,8 +5216,18 @@
       <c r="L108" s="5">
         <v>12</v>
       </c>
-      <c r="M108" s="5">
-        <v>3.3149999999999999</v>
+      <c r="M108" s="7">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
